--- a/medicine/Sexualité et sexologie/La_Fleur_du_Capital/La_Fleur_du_Capital.xlsx
+++ b/medicine/Sexualité et sexologie/La_Fleur_du_Capital/La_Fleur_du_Capital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Fleur du Capital[a] est le premier roman de Jean-Noël Orengo, paru le 7 janvier 2015 aux éditions Grasset. Il a été récompensé la même année par le prix de Flore et le prix Sade.
@@ -512,9 +524,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le roman décrit de façon polyphonique — au travers des portraits de cinq personnages constituant chacun un acte et des scènes à la manière théâtrale — la vie des prostitués, hommes ou femmes, et des clients de la « capitale mondiale de la prostitution », Pattaya en Thaïlande où Jean-Noël Orengo a résidé à de nombreuses reprises chaque année depuis 2007[1] et a fait la rencontre de différentes personnes qui l'ont inspiré[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le roman décrit de façon polyphonique — au travers des portraits de cinq personnages constituant chacun un acte et des scènes à la manière théâtrale — la vie des prostitués, hommes ou femmes, et des clients de la « capitale mondiale de la prostitution », Pattaya en Thaïlande où Jean-Noël Orengo a résidé à de nombreuses reprises chaque année depuis 2007 et a fait la rencontre de différentes personnes qui l'ont inspiré.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce roman, considéré comme une « œuvre-somme[1] », est particulièrement remarqué par la critique[3],[4],[5], notamment par le magazine Transfuge qui en fait sa couverture et son dossier de janvier 2015[6], et a fait partie des quatre romans retenus dans la sélection finale du prix Goncourt du premier roman[7].
-Le 24 septembre 2015, le roman obtient le prix Sade[8] (ex-æquo avec Les Sangs d'Audrée Wilhelmy) puis, le 10 novembre, est récompensé par le prix de Flore[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce roman, considéré comme une « œuvre-somme », est particulièrement remarqué par la critique notamment par le magazine Transfuge qui en fait sa couverture et son dossier de janvier 2015, et a fait partie des quatre romans retenus dans la sélection finale du prix Goncourt du premier roman.
+Le 24 septembre 2015, le roman obtient le prix Sade (ex-æquo avec Les Sangs d'Audrée Wilhelmy) puis, le 10 novembre, est récompensé par le prix de Flore.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Éditions Grasset, 2015,  (ISBN 978-2-246-85253-7).</t>
         </is>
